--- a/PaperPilot/All_EachPageTextwithFitz_3.xlsx
+++ b/PaperPilot/All_EachPageTextwithFitz_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\PaperPilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A271DF8E-4517-4A3A-8276-5BE6B8ADFFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFFD96-18E9-4B19-B04B-73311DED6E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7383,7 +7383,24 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7683,8 +7700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -7848,358 +7865,336 @@
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25"/>
     </row>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26"/>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27"/>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28"/>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29"/>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30"/>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34"/>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38"/>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39"/>
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40"/>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41"/>
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42"/>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
+      <c r="A54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>152</v>
+      <c r="A55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
+      <c r="A56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
@@ -8207,10 +8202,10 @@
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
@@ -8218,10 +8213,10 @@
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
@@ -8229,80 +8224,98 @@
     </row>
     <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
+      <c r="A63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
+      <c r="A64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
+      <c r="A65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
+      <c r="A66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
+      <c r="A67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
@@ -8310,73 +8323,98 @@
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
+      <c r="A70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
+      <c r="A71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
+      <c r="A72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
+      <c r="A73" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
+      <c r="A74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
+      <c r="A75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
+      <c r="A76" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C76" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
+      <sortCondition sortBy="cellColor" ref="A1:A76" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
